--- a/data/trans_dic/P16A_2_R3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A_2_R3-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,93; 37,49</t>
+          <t>29,81; 37,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>56,81; 62,12</t>
+          <t>56,84; 62,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>46,91; 51,67</t>
+          <t>47,06; 51,89</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,8; 24,19</t>
+          <t>19,72; 24,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,34; 48,84</t>
+          <t>33,33; 47,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,42; 36,79</t>
+          <t>27,36; 36,91</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,24; 22,94</t>
+          <t>15,46; 22,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,93; 32,1</t>
+          <t>25,85; 32,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,97; 26,48</t>
+          <t>22,09; 26,54</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,76; 25,03</t>
+          <t>21,6; 24,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,09; 47,66</t>
+          <t>38,33; 46,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,89; 36,19</t>
+          <t>30,9; 36,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A_2_R3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A_2_R3-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,81; 37,31</t>
+          <t>29,93; 37,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>56,84; 62,62</t>
+          <t>56,81; 62,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>47,06; 51,89</t>
+          <t>46,91; 51,67</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,72; 24,0</t>
+          <t>19,8; 24,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,33; 47,68</t>
+          <t>33,34; 48,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,36; 36,91</t>
+          <t>27,42; 36,79</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,46; 22,54</t>
+          <t>16,24; 22,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,85; 32,05</t>
+          <t>25,93; 32,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,09; 26,54</t>
+          <t>21,97; 26,48</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,6; 24,97</t>
+          <t>21,76; 25,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,33; 46,07</t>
+          <t>38,09; 47,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,9; 36,47</t>
+          <t>30,89; 36,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A_2_R3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A_2_R3-Estudios-trans_dic.xlsx
@@ -556,7 +556,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>33,65%</t>
+          <t>33,7%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>49,37%</t>
+          <t>49,07%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,93; 37,49</t>
+          <t>29,79; 37,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>56,81; 62,12</t>
+          <t>56,92; 62,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>46,91; 51,67</t>
+          <t>46,56; 51,31</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>20,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>37,21%</t>
+          <t>39,18%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>29,81%</t>
+          <t>29,68%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,8; 24,19</t>
+          <t>14,68; 23,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,34; 48,84</t>
+          <t>32,15; 58,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,42; 36,79</t>
+          <t>24,95; 39,72</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>19,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>28,88%</t>
+          <t>29,11%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>24,29%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,24; 22,94</t>
+          <t>16,38; 23,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,93; 32,1</t>
+          <t>26,2; 32,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,97; 26,48</t>
+          <t>22,04; 26,65</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23,37%</t>
+          <t>22,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>40,56%</t>
+          <t>41,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>32,47%</t>
+          <t>32,15%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,76; 25,03</t>
+          <t>17,35; 24,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,09; 47,66</t>
+          <t>37,12; 53,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,89; 36,19</t>
+          <t>28,89; 38,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A_2_R3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A_2_R3-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,79; 37,59</t>
+          <t>30,03; 37,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>56,92; 62,15</t>
+          <t>57,05; 62,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>46,56; 51,31</t>
+          <t>46,79; 51,42</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,68; 23,51</t>
+          <t>13,96; 23,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,15; 58,57</t>
+          <t>32,24; 57,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,95; 39,72</t>
+          <t>25,2; 40,38</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,38; 23,38</t>
+          <t>16,16; 23,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,2; 32,36</t>
+          <t>25,82; 32,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,04; 26,65</t>
+          <t>22,16; 26,77</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,35; 24,5</t>
+          <t>17,58; 24,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,12; 53,75</t>
+          <t>37,35; 52,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,89; 38,53</t>
+          <t>28,91; 39,07</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1132</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>173541</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>449881</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>623422</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>154658; 194177</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>431010; 472272</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>594469; 653229</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1109</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1604</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>467018</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>876718</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1343736</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>319813; 538135</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>721549; 1277938</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1140902; 1828461</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>125156</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>192288</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>317444</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>104500; 149159</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>170539; 212639</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>289619; 349884</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2287</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3159</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>765715</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1518887</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2284603</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>606901; 847629</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1364622; 1912429</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2054571; 2776051</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>